--- a/sample/sample2.xlsx
+++ b/sample/sample2.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="01_0表紙" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="readonly" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -153,7 +153,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -172,7 +172,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
-        <f aca="false">01_0表紙!T2830</f>
+        <f aca="false">01_0表紙!t2830</f>
         <v>0</v>
       </c>
     </row>

--- a/sample/sample2.xlsx
+++ b/sample/sample2.xlsx
@@ -153,7 +153,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -170,6 +170,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="e">
+        <f aca="false">01_0表紙!Y9</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="e">
+        <f aca="false">01_0表紙!Y10</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
         <f aca="false">01_0表紙!t2830</f>

--- a/sample/sample2.xlsx
+++ b/sample/sample2.xlsx
@@ -153,7 +153,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -171,15 +171,15 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="e">
+      <c r="B15" s="0" t="n">
         <f aca="false">01_0表紙!Y9</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="e">
+      <c r="B16" s="0" t="n">
         <f aca="false">01_0表紙!Y10</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
